--- a/biology/Origine et évolution du vivant/Metazoa_(classification_phylogénétique)/Metazoa_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Metazoa_(classification_phylogénétique)/Metazoa_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Metazoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Metazoa_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Metazoa (Animalia, Métazoaires, ou Animaux pluricellulaires), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Metazoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Metazoa_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -1056,7 +1070,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Metazoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Metazoa_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1074,7 +1088,9 @@
           <t>Débat scientifique relatif à la phylogénie des Metazoa</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux points ont été acquis ces dernières années :
 la monophylie des Métazoaires en général, et en leur sein celle des Bilatériens ;
@@ -1104,8 +1120,43 @@
               └─o
                 ├─o Homoscleromorpha
                 └─o Eumetazoa
-Classification selon Cavalier-Smith 1998
-Cette classification n'est pas à proprement parler phylogénétique. Basée sur les nouvelles phylogénies, elle maintient néanmoins des taxons paraphylétiques, notamment à la base des lignées évolutives, par commodité. Elle maintient également les niveaux traditionnels de classification (règnes, phyla, classes, etc.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Metazoa_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Metazoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Débat scientifique relatif à la phylogénie des Metazoa</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification selon Cavalier-Smith 1998</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette classification n'est pas à proprement parler phylogénétique. Basée sur les nouvelles phylogénies, elle maintient néanmoins des taxons paraphylétiques, notamment à la base des lignées évolutives, par commodité. Elle maintient également les niveaux traditionnels de classification (règnes, phyla, classes, etc.).
 Classification selon Cavalier-Smith 1998
 ▲
 └─o règne des Animalia
@@ -1127,8 +1178,43 @@
   ├─o sous-règne des Bilateria (peut-être paraphylétique)  ►
   └─o sous-règne des Mesozoa
     └─o embranchement des Mesozoa
-Classification proposée par Adl et al. 2005
-Ce comité a proposé une nouvelle classification, remplaçant celle des anciens Protistes et tenant compte des phylogénies moléculaires récentes. Elle regroupe les Eucaryotes en six groupes réputés monophylétiques. Voici ce qui concerne les Métazoaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Metazoa_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Metazoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Débat scientifique relatif à la phylogénie des Metazoa</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Classification proposée par Adl et al. 2005</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce comité a proposé une nouvelle classification, remplaçant celle des anciens Protistes et tenant compte des phylogénies moléculaires récentes. Elle regroupe les Eucaryotes en six groupes réputés monophylétiques. Voici ce qui concerne les Métazoaires.
 Classification proposée par Adl et al. 2005
 ▲
 └─o Metazoa
@@ -1149,36 +1235,80 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Metazoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Metazoa_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Origine et évolution du vivant/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Metazoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>En savoir plus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sources bibliographiques de référence
- : document utilisé comme source pour la rédaction de cet article.
-sur les Metazoa en général
-Hervé Philippe, Henner Brinkmann, Dennis V. Lavrov, D. Timothy J. Littlewood, Michael Manuel, Gert Wörheide et Denis Baurain : « Resolving Difficult Phylogenetic Questions: Why More Sequences Are Not Enough »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?), PLoS Biology, vol. 9, n°3, 2011, 10 pages
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Metazoa_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Metazoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>sur les Metazoa en général</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hervé Philippe, Henner Brinkmann, Dennis V. Lavrov, D. Timothy J. Littlewood, Michael Manuel, Gert Wörheide et Denis Baurain : « Resolving Difficult Phylogenetic Questions: Why More Sequences Are Not Enough »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?), PLoS Biology, vol. 9, n°3, 2011, 10 pages
 Kevin J. Peterson, James A. Cotton, James G. Gehling et Davide Pisani : « The Ediacaran emergence of bilaterians: congruence between the genetic and the geological fossil records », Phil. Trans. R. Soc. B, vol. 363, 2008, pp. 1435–1443
 Casey W. Dunn, Andreas Hejnol, David Q. Matus, Kevin Pang, William E. Browne, Stephen A. Smith, Elaine Seaver, Greg W. Rouse, Matthias Obst, Gregory D. Edgecombe, Martin V. Sørensen, Steven H. D. Haddock, Andreas Schmidt-Rhaesa, Akiko Okusu, Reinhardt Møbjerg Kristensen, Ward C. Wheeler, Mark Q. Martindale et Gonzalo Giribet (2008) « Broad phylogenomic sampling improves resolution of the animal tree of life », Nature, 452, pp. 745-749 : présentation ici
 Gonzalo Giribet, Casey W. Dunn, Gregory D. Edgecombe et Greg W. Rouse, « A modern look at the Animal Tree of Life », in Z.-Q. Zhang et W.A. Shear (éd.) (2007) « Linnaeus Tercentenary: Progress in Invertebrate Taxonomy », Zootaxa, 1668, pp. 61-79
@@ -1187,9 +1317,47 @@
 Kenneth M. Halanych (2004) « The New View of Animal Phylogeny », Annu. Rev. Ecol. Evol. Syst. 35, pp. 229–256
 Jan Zrzavý (2001) « The interrelationships of metazoan parasites: a review of phylum- and higher-level hypotheses from recent morphological and molecular phylogenetic analyses », Folia parasitologica, 48, pp. 81-103
 Kevin J. Peterson et Douglas J. Eernisse (2001) « Animal phylogeny and the ancestry of bilaterians: inferences from morphology and 18S rDNA gene sequences », Evolution and Development 3 (3), pp. 170-205
-Thomas Cavalier-Smith (1998) « A revised six-kingdom system of life », Biological reviews 73, p. 203-266 
-sur des taxa particuliers développés sur cette page
-Paco Cárdenas, Joana R. Xavier, Julie Reveillaud, Christoffer Schander et Hans Tore Rapp : « Molecular Phylogeny of the Astrophorida (Porifera, Demospongiae) Reveals an Unexpected High Level of Spicule Homoplasy », PLoS ONE, vol. 6, n°4, 2011
+Thomas Cavalier-Smith (1998) « A revised six-kingdom system of life », Biological reviews 73, p. 203-266 </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Metazoa_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Metazoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>sur des taxa particuliers développés sur cette page</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Paco Cárdenas, Joana R. Xavier, Julie Reveillaud, Christoffer Schander et Hans Tore Rapp : « Molecular Phylogeny of the Astrophorida (Porifera, Demospongiae) Reveals an Unexpected High Level of Spicule Homoplasy », PLoS ONE, vol. 6, n°4, 2011
 Eve Gazave, Pascal Lapébie, Emmanuelle Renard, Jean Vacelet, Caroline Rocher, Alexander V. Ereskovsky, Dennis V. Lavrov, Carole Borchiellini : « Molecular Phylogeny Restores the Supra-Generic Subdivision of Homoscleromorph Sponges (Porifera, Homoscleromorpha) », PLoS ONE, vol. 5, n°12, 2010
 M. Dohrmann, A.G. Collins et G. Wörheide : « New insights into the phylogeny of glass sponges (Porifera, Hexactinellida): Monophyly of Lyssacinosida and Euplectellinae, and the phylogenetic position of Euretidae », Molecular Phylogenetics and Evolution, vol. 52, 2009, pp. 257-262
 Erik A. Sperling, Kevin J. Peterson et Davide Pisani : « Phylogenetic-Signal Dissection of Nuclear Housekeeping Genes Supports the Paraphyly of Sponges and the Monophyly of Eumetazoa », Mol. Biol. Evol., vol. 26, n°10, 2009, pp. 2261-2274
@@ -1202,16 +1370,84 @@
 Mikhail A. Fedonkin : « The origin of the Metazoa in the light of the Proterozoic fossil record », Paleontological Research, vol. 7, n°1, 2003, pp. 9-41
 Jerzy Dzik : « Anatomical Information Content in the Ediacaran Fossils and Their Possible Zoological Affinities », Integr. Comp. Biol., vol. 43, 2003, pp. 114-126
 Systema Porifera. A Guide to the Classification of Sponges, Hooper, John N.A., van Soest, Rob W.M. (éd.), 2002, Kluwer Academic / Plenum Publishers,  (ISBN 978-0-306-47260-2)
-Radovan Borojevic, Nicole Boury-Esnault et Jean Vacelet : « A revision of the supraspecific classification of the subclass Calcaronea (Porifera, class Calcarea) », Zoosystema, vol. 22, n°2, 2000, pp. 203-263
-Sources internet
-« Palaeos.com » 
+Radovan Borojevic, Nicole Boury-Esnault et Jean Vacelet : « A revision of the supraspecific classification of the subclass Calcaronea (Porifera, class Calcarea) », Zoosystema, vol. 22, n°2, 2000, pp. 203-263</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Metazoa_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Metazoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sources internet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>« Palaeos.com » 
 « The Origin and Early Evolution of Animals »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?)
 « The Ediacaran Assemblage »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?)
 World Porifera Database
 Porifera Cladogram in Palaeos
-« Archaeocyatha - a knowledge base »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?)
-Autres sites internet
-« Organisation et diversité du Monde Animal », Cahiers d'Anatomie Comparée, École nationale vétérinaire de Nantes.</t>
+« Archaeocyatha - a knowledge base »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Metazoa_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Metazoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres sites internet</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>« Organisation et diversité du Monde Animal », Cahiers d'Anatomie Comparée, École nationale vétérinaire de Nantes.</t>
         </is>
       </c>
     </row>
